--- a/Yield_curve.xlsx
+++ b/Yield_curve.xlsx
@@ -5538,7 +5538,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
